--- a/doc4phy/WisDragon/管理/个人报销记录/报销单_20130114.xlsx
+++ b/doc4phy/WisDragon/管理/个人报销记录/报销单_20130114.xlsx
@@ -2739,6 +2739,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2748,18 +2757,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2784,38 +2814,191 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2824,15 +3007,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2841,224 +3015,50 @@
     <xf numFmtId="14" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="58" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="58" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4574,9 +4574,9 @@
       <c r="H3" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1">
       <c r="A4" s="127" t="s">
@@ -4586,140 +4586,140 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="235"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="225"/>
+      <c r="J4" s="225"/>
+      <c r="K4" s="225"/>
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A5" s="238" t="s">
+      <c r="A5" s="229" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
-      <c r="K5" s="244"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="230"/>
+      <c r="K5" s="231"/>
     </row>
     <row r="6" spans="1:13" ht="21" customHeight="1">
       <c r="A6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="245" t="s">
+      <c r="B6" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="247"/>
-      <c r="D6" s="247"/>
-      <c r="E6" s="247"/>
-      <c r="F6" s="246"/>
-      <c r="G6" s="245" t="s">
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="233"/>
+      <c r="G6" s="232" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="246"/>
-      <c r="I6" s="245" t="s">
+      <c r="H6" s="233"/>
+      <c r="I6" s="232" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="247"/>
-      <c r="K6" s="246"/>
+      <c r="J6" s="234"/>
+      <c r="K6" s="233"/>
     </row>
     <row r="7" spans="1:13" ht="24.75" customHeight="1">
       <c r="A7" s="84"/>
-      <c r="B7" s="227"/>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="226"/>
-      <c r="H7" s="225"/>
-      <c r="I7" s="223"/>
-      <c r="J7" s="224"/>
-      <c r="K7" s="225"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="226"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="228"/>
     </row>
     <row r="8" spans="1:13" ht="24.75" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="227"/>
-      <c r="C8" s="228"/>
-      <c r="D8" s="228"/>
-      <c r="E8" s="228"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="226"/>
-      <c r="H8" s="225"/>
-      <c r="I8" s="223"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="225"/>
+      <c r="B8" s="236"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="238"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="226"/>
+      <c r="J8" s="227"/>
+      <c r="K8" s="228"/>
     </row>
     <row r="9" spans="1:13" ht="24.75" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="227"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="228"/>
-      <c r="E9" s="228"/>
-      <c r="F9" s="229"/>
-      <c r="G9" s="226"/>
-      <c r="H9" s="225"/>
-      <c r="I9" s="223"/>
-      <c r="J9" s="224"/>
-      <c r="K9" s="225"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="238"/>
+      <c r="G9" s="239"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="226"/>
+      <c r="J9" s="227"/>
+      <c r="K9" s="228"/>
     </row>
     <row r="10" spans="1:13" ht="24.75" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="227"/>
-      <c r="C10" s="228"/>
-      <c r="D10" s="228"/>
-      <c r="E10" s="228"/>
-      <c r="F10" s="229"/>
-      <c r="G10" s="226"/>
-      <c r="H10" s="225"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="224"/>
-      <c r="K10" s="225"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="238"/>
+      <c r="G10" s="239"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="226"/>
+      <c r="J10" s="227"/>
+      <c r="K10" s="228"/>
     </row>
     <row r="11" spans="1:13" ht="24.75" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="227"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="229"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="225"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="224"/>
-      <c r="K11" s="225"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="237"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="228"/>
+      <c r="I11" s="226"/>
+      <c r="J11" s="227"/>
+      <c r="K11" s="228"/>
     </row>
     <row r="12" spans="1:13" ht="24.75" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="227"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="228"/>
-      <c r="F12" s="229"/>
-      <c r="G12" s="226"/>
-      <c r="H12" s="225"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="224"/>
-      <c r="K12" s="225"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
+      <c r="E12" s="237"/>
+      <c r="F12" s="238"/>
+      <c r="G12" s="239"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="226"/>
+      <c r="J12" s="227"/>
+      <c r="K12" s="228"/>
     </row>
     <row r="13" spans="1:13" ht="24.75" customHeight="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="227"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="228"/>
-      <c r="E13" s="228"/>
-      <c r="F13" s="229"/>
-      <c r="G13" s="226"/>
-      <c r="H13" s="225"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="224"/>
-      <c r="K13" s="225"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="237"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="238"/>
+      <c r="G13" s="239"/>
+      <c r="H13" s="228"/>
+      <c r="I13" s="226"/>
+      <c r="J13" s="227"/>
+      <c r="K13" s="228"/>
     </row>
     <row r="14" spans="1:13" ht="24.75" customHeight="1">
       <c r="A14" s="39" t="s">
@@ -4728,49 +4728,49 @@
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="53"/>
-      <c r="E14" s="238" t="s">
+      <c r="E14" s="229" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="239"/>
-      <c r="G14" s="226">
+      <c r="F14" s="248"/>
+      <c r="G14" s="239">
         <f>SUM(G7:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="225"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="224"/>
-      <c r="K14" s="225"/>
+      <c r="H14" s="228"/>
+      <c r="I14" s="226"/>
+      <c r="J14" s="227"/>
+      <c r="K14" s="228"/>
     </row>
     <row r="15" spans="1:13" ht="24.75" customHeight="1">
       <c r="A15" s="50"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="234" t="s">
+      <c r="E15" s="244" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="235"/>
-      <c r="G15" s="230" t="str">
+      <c r="F15" s="245"/>
+      <c r="G15" s="240" t="str">
         <f>IF(G14=0,"零",IF(G14-INT(G14)=0,TEXT(G14,"[DBNUM2]")&amp;"元整",IF(INT(G14)=0,IF(INT(G14*10)-G14*10=0,TEXT((INT(G14*10)-INT(G14)*10),"[DBNUM2]")&amp;"角整",IF(INT(G14*10)-INT(G14)*10=0,TEXT(RIGHT(G14,1),"[DBNUM2]")&amp;"分",TEXT(INT(G14*10)-INT(G14)*10,"[DBNUM2]")&amp;"角"&amp;TEXT(RIGHT(G14,1),"[DBNUM2]")&amp;"分")),IF(INT(G14*10)-G14*10=0,TEXT(INT(G14),"[DBNUM2]")&amp;"元"&amp;TEXT((INT(G14*10)-INT(G14)*10),"[DBNUM2]")&amp;"角整",TEXT(INT(G14),"[DBNUM2]")&amp;"元"&amp;IF(INT(G14*10)-INT(G14)*10=0,"零",TEXT(INT(G14*10)-INT(G14)*10,"[DBNUM2]")&amp;"角")&amp;TEXT(RIGHT(G14,1),"[DBNUM2]")&amp;"分"))))</f>
         <v>零</v>
       </c>
-      <c r="H15" s="230"/>
-      <c r="I15" s="230"/>
-      <c r="J15" s="230"/>
-      <c r="K15" s="231"/>
+      <c r="H15" s="240"/>
+      <c r="I15" s="240"/>
+      <c r="J15" s="240"/>
+      <c r="K15" s="241"/>
     </row>
     <row r="16" spans="1:13" ht="12" customHeight="1">
       <c r="A16" s="51"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="236"/>
-      <c r="F16" s="237"/>
-      <c r="G16" s="232"/>
-      <c r="H16" s="232"/>
-      <c r="I16" s="232"/>
-      <c r="J16" s="232"/>
-      <c r="K16" s="233"/>
+      <c r="E16" s="246"/>
+      <c r="F16" s="247"/>
+      <c r="G16" s="242"/>
+      <c r="H16" s="242"/>
+      <c r="I16" s="242"/>
+      <c r="J16" s="242"/>
+      <c r="K16" s="243"/>
     </row>
     <row r="17" spans="1:11" ht="15">
       <c r="A17" s="116" t="s">
@@ -5081,6 +5081,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G15:K16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="I7:K7"/>
@@ -5090,30 +5114,6 @@
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G15:K16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.33" right="0.18" top="0.26" bottom="0.25" header="0.17" footer="0.16"/>
@@ -5127,8 +5127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AH20" sqref="AH20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5143,7 +5143,10 @@
     <col min="9" max="9" width="4.5703125" customWidth="1"/>
     <col min="10" max="18" width="3.85546875" customWidth="1"/>
     <col min="19" max="19" width="6.5703125" customWidth="1"/>
-    <col min="20" max="23" width="3.85546875" customWidth="1"/>
+    <col min="20" max="20" width="3.85546875" customWidth="1"/>
+    <col min="21" max="21" width="0.28515625" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" customWidth="1"/>
     <col min="24" max="24" width="3.28515625" customWidth="1"/>
     <col min="25" max="25" width="3" customWidth="1"/>
     <col min="26" max="26" width="3.42578125" customWidth="1"/>
@@ -5174,12 +5177,12 @@
         <v>106</v>
       </c>
       <c r="R2" s="90"/>
-      <c r="S2" s="288" t="s">
+      <c r="S2" s="294" t="s">
         <v>155</v>
       </c>
-      <c r="T2" s="289"/>
-      <c r="U2" s="289"/>
-      <c r="V2" s="290"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="257"/>
+      <c r="V2" s="258"/>
       <c r="W2" s="23" t="s">
         <v>27</v>
       </c>
@@ -5211,11 +5214,11 @@
       </c>
       <c r="R3" s="92"/>
       <c r="S3" s="213"/>
-      <c r="T3" s="291">
+      <c r="T3" s="295">
         <v>3</v>
       </c>
-      <c r="U3" s="291"/>
-      <c r="V3" s="292"/>
+      <c r="U3" s="295"/>
+      <c r="V3" s="296"/>
       <c r="W3" s="41"/>
       <c r="X3" s="41"/>
       <c r="Y3" s="41"/>
@@ -5248,18 +5251,18 @@
         <v>154</v>
       </c>
       <c r="R4" s="90"/>
-      <c r="S4" s="293" t="s">
+      <c r="S4" s="297" t="s">
         <v>156</v>
       </c>
-      <c r="T4" s="294"/>
-      <c r="U4" s="294"/>
-      <c r="V4" s="295"/>
+      <c r="T4" s="298"/>
+      <c r="U4" s="298"/>
+      <c r="V4" s="299"/>
       <c r="W4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="305"/>
-      <c r="Z4" s="305"/>
-      <c r="AA4" s="306"/>
+      <c r="Y4" s="252"/>
+      <c r="Z4" s="252"/>
+      <c r="AA4" s="253"/>
       <c r="AB4" s="42" t="s">
         <v>9</v>
       </c>
@@ -5295,11 +5298,11 @@
         <v>14</v>
       </c>
       <c r="V5" s="208"/>
-      <c r="W5" s="307"/>
-      <c r="X5" s="308"/>
-      <c r="Y5" s="308"/>
-      <c r="Z5" s="308"/>
-      <c r="AA5" s="309"/>
+      <c r="W5" s="254"/>
+      <c r="X5" s="250"/>
+      <c r="Y5" s="250"/>
+      <c r="Z5" s="250"/>
+      <c r="AA5" s="251"/>
       <c r="AB5" s="45" t="s">
         <v>34</v>
       </c>
@@ -5310,29 +5313,29 @@
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
-      <c r="D6" s="328">
+      <c r="D6" s="263">
         <v>41262</v>
       </c>
-      <c r="E6" s="311"/>
-      <c r="F6" s="312"/>
-      <c r="G6" s="284"/>
-      <c r="H6" s="311"/>
-      <c r="I6" s="312"/>
-      <c r="J6" s="284"/>
-      <c r="K6" s="311"/>
-      <c r="L6" s="312"/>
-      <c r="M6" s="284"/>
-      <c r="N6" s="311"/>
-      <c r="O6" s="286"/>
-      <c r="P6" s="284"/>
-      <c r="Q6" s="285"/>
-      <c r="R6" s="286"/>
-      <c r="S6" s="287"/>
-      <c r="T6" s="285"/>
-      <c r="U6" s="286"/>
-      <c r="V6" s="287"/>
-      <c r="W6" s="311"/>
-      <c r="X6" s="312"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="264"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="262"/>
+      <c r="J6" s="264"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="262"/>
+      <c r="M6" s="264"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="265"/>
+      <c r="P6" s="264"/>
+      <c r="Q6" s="293"/>
+      <c r="R6" s="265"/>
+      <c r="S6" s="260"/>
+      <c r="T6" s="293"/>
+      <c r="U6" s="265"/>
+      <c r="V6" s="260"/>
+      <c r="W6" s="261"/>
+      <c r="X6" s="262"/>
       <c r="Y6" s="36"/>
       <c r="Z6" s="37"/>
       <c r="AA6" s="37"/>
@@ -5344,29 +5347,29 @@
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
-      <c r="D7" s="327" t="s">
+      <c r="D7" s="300" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="299"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="301"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="299"/>
-      <c r="L7" s="300"/>
-      <c r="M7" s="301"/>
-      <c r="N7" s="299"/>
-      <c r="O7" s="300"/>
-      <c r="P7" s="296"/>
-      <c r="Q7" s="297"/>
-      <c r="R7" s="298"/>
-      <c r="S7" s="296"/>
-      <c r="T7" s="297"/>
-      <c r="U7" s="298"/>
-      <c r="V7" s="296"/>
-      <c r="W7" s="297"/>
-      <c r="X7" s="298"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="277"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="276"/>
+      <c r="I7" s="277"/>
+      <c r="J7" s="275"/>
+      <c r="K7" s="276"/>
+      <c r="L7" s="277"/>
+      <c r="M7" s="275"/>
+      <c r="N7" s="276"/>
+      <c r="O7" s="277"/>
+      <c r="P7" s="272"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="274"/>
+      <c r="S7" s="272"/>
+      <c r="T7" s="273"/>
+      <c r="U7" s="274"/>
+      <c r="V7" s="272"/>
+      <c r="W7" s="273"/>
+      <c r="X7" s="274"/>
       <c r="Y7" s="45"/>
       <c r="AB7" s="45"/>
       <c r="AD7" s="57"/>
@@ -5375,11 +5378,11 @@
       <c r="A8" s="83"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
-      <c r="D8" s="329">
+      <c r="D8" s="249">
         <v>41275</v>
       </c>
-      <c r="E8" s="308"/>
-      <c r="F8" s="309"/>
+      <c r="E8" s="250"/>
+      <c r="F8" s="251"/>
       <c r="G8" s="46"/>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
@@ -5429,8 +5432,8 @@
     </row>
     <row r="10" spans="1:30" ht="15">
       <c r="A10" s="17"/>
-      <c r="B10" s="289"/>
-      <c r="C10" s="290"/>
+      <c r="B10" s="257"/>
+      <c r="C10" s="258"/>
       <c r="D10" s="45"/>
       <c r="G10" s="45"/>
       <c r="J10" s="45"/>
@@ -5438,11 +5441,11 @@
       <c r="P10" s="45"/>
       <c r="S10" s="45"/>
       <c r="V10" s="45"/>
-      <c r="Y10" s="249" t="s">
+      <c r="Y10" s="310" t="s">
         <v>35</v>
       </c>
-      <c r="Z10" s="250"/>
-      <c r="AA10" s="251"/>
+      <c r="Z10" s="311"/>
+      <c r="AA10" s="312"/>
       <c r="AB10" s="42" t="s">
         <v>24</v>
       </c>
@@ -5488,33 +5491,33 @@
         <v>42</v>
       </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="258"/>
-      <c r="E12" s="259"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="258"/>
-      <c r="H12" s="259"/>
-      <c r="I12" s="260"/>
-      <c r="J12" s="258"/>
-      <c r="K12" s="259"/>
-      <c r="L12" s="260"/>
-      <c r="M12" s="258"/>
-      <c r="N12" s="259"/>
-      <c r="O12" s="260"/>
-      <c r="P12" s="258"/>
-      <c r="Q12" s="259"/>
-      <c r="R12" s="260"/>
-      <c r="S12" s="258"/>
-      <c r="T12" s="259"/>
-      <c r="U12" s="260"/>
-      <c r="V12" s="258"/>
-      <c r="W12" s="259"/>
-      <c r="X12" s="260"/>
-      <c r="Y12" s="258">
+      <c r="D12" s="266"/>
+      <c r="E12" s="267"/>
+      <c r="F12" s="268"/>
+      <c r="G12" s="266"/>
+      <c r="H12" s="267"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="266"/>
+      <c r="K12" s="267"/>
+      <c r="L12" s="268"/>
+      <c r="M12" s="266"/>
+      <c r="N12" s="267"/>
+      <c r="O12" s="268"/>
+      <c r="P12" s="266"/>
+      <c r="Q12" s="267"/>
+      <c r="R12" s="268"/>
+      <c r="S12" s="266"/>
+      <c r="T12" s="267"/>
+      <c r="U12" s="268"/>
+      <c r="V12" s="266"/>
+      <c r="W12" s="267"/>
+      <c r="X12" s="268"/>
+      <c r="Y12" s="266">
         <f>SUM(D12:X12)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="259"/>
-      <c r="AA12" s="260"/>
+      <c r="Z12" s="267"/>
+      <c r="AA12" s="268"/>
       <c r="AB12" s="19"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
@@ -5527,33 +5530,33 @@
         <v>43</v>
       </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="258"/>
-      <c r="E13" s="259"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="281"/>
-      <c r="H13" s="282"/>
-      <c r="I13" s="283"/>
-      <c r="J13" s="281"/>
-      <c r="K13" s="282"/>
-      <c r="L13" s="283"/>
-      <c r="M13" s="281"/>
-      <c r="N13" s="282"/>
-      <c r="O13" s="283"/>
-      <c r="P13" s="281"/>
-      <c r="Q13" s="282"/>
-      <c r="R13" s="283"/>
-      <c r="S13" s="281"/>
-      <c r="T13" s="282"/>
-      <c r="U13" s="283"/>
-      <c r="V13" s="281"/>
-      <c r="W13" s="282"/>
-      <c r="X13" s="283"/>
-      <c r="Y13" s="258">
+      <c r="D13" s="266"/>
+      <c r="E13" s="267"/>
+      <c r="F13" s="268"/>
+      <c r="G13" s="269"/>
+      <c r="H13" s="270"/>
+      <c r="I13" s="271"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="270"/>
+      <c r="L13" s="271"/>
+      <c r="M13" s="269"/>
+      <c r="N13" s="270"/>
+      <c r="O13" s="271"/>
+      <c r="P13" s="269"/>
+      <c r="Q13" s="270"/>
+      <c r="R13" s="271"/>
+      <c r="S13" s="269"/>
+      <c r="T13" s="270"/>
+      <c r="U13" s="271"/>
+      <c r="V13" s="269"/>
+      <c r="W13" s="270"/>
+      <c r="X13" s="271"/>
+      <c r="Y13" s="266">
         <f t="shared" ref="Y13:Y24" si="0">SUM(D13:X13)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="259"/>
-      <c r="AA13" s="260"/>
+      <c r="Z13" s="267"/>
+      <c r="AA13" s="268"/>
       <c r="AB13" s="19"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
@@ -5566,36 +5569,36 @@
         <v>44</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="258">
+      <c r="D14" s="266">
         <f>438+27</f>
         <v>465</v>
       </c>
-      <c r="E14" s="259"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="281"/>
-      <c r="H14" s="282"/>
-      <c r="I14" s="283"/>
-      <c r="J14" s="281"/>
-      <c r="K14" s="282"/>
-      <c r="L14" s="283"/>
-      <c r="M14" s="281"/>
-      <c r="N14" s="282"/>
-      <c r="O14" s="283"/>
-      <c r="P14" s="281"/>
-      <c r="Q14" s="282"/>
-      <c r="R14" s="283"/>
-      <c r="S14" s="281"/>
-      <c r="T14" s="282"/>
-      <c r="U14" s="283"/>
-      <c r="V14" s="281"/>
-      <c r="W14" s="282"/>
-      <c r="X14" s="283"/>
-      <c r="Y14" s="258">
+      <c r="E14" s="267"/>
+      <c r="F14" s="268"/>
+      <c r="G14" s="269"/>
+      <c r="H14" s="270"/>
+      <c r="I14" s="271"/>
+      <c r="J14" s="269"/>
+      <c r="K14" s="270"/>
+      <c r="L14" s="271"/>
+      <c r="M14" s="269"/>
+      <c r="N14" s="270"/>
+      <c r="O14" s="271"/>
+      <c r="P14" s="269"/>
+      <c r="Q14" s="270"/>
+      <c r="R14" s="271"/>
+      <c r="S14" s="269"/>
+      <c r="T14" s="270"/>
+      <c r="U14" s="271"/>
+      <c r="V14" s="269"/>
+      <c r="W14" s="270"/>
+      <c r="X14" s="271"/>
+      <c r="Y14" s="266">
         <f t="shared" si="0"/>
         <v>465</v>
       </c>
-      <c r="Z14" s="259"/>
-      <c r="AA14" s="260"/>
+      <c r="Z14" s="267"/>
+      <c r="AA14" s="268"/>
       <c r="AB14" s="19"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
@@ -5608,33 +5611,33 @@
         <v>45</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="258"/>
-      <c r="E15" s="259"/>
-      <c r="F15" s="260"/>
-      <c r="G15" s="281"/>
-      <c r="H15" s="282"/>
-      <c r="I15" s="283"/>
-      <c r="J15" s="281"/>
-      <c r="K15" s="282"/>
-      <c r="L15" s="283"/>
-      <c r="M15" s="281"/>
-      <c r="N15" s="282"/>
-      <c r="O15" s="283"/>
-      <c r="P15" s="281"/>
-      <c r="Q15" s="282"/>
-      <c r="R15" s="283"/>
-      <c r="S15" s="281"/>
-      <c r="T15" s="282"/>
-      <c r="U15" s="283"/>
-      <c r="V15" s="281"/>
-      <c r="W15" s="282"/>
-      <c r="X15" s="283"/>
-      <c r="Y15" s="258">
+      <c r="D15" s="266"/>
+      <c r="E15" s="267"/>
+      <c r="F15" s="268"/>
+      <c r="G15" s="269"/>
+      <c r="H15" s="270"/>
+      <c r="I15" s="271"/>
+      <c r="J15" s="269"/>
+      <c r="K15" s="270"/>
+      <c r="L15" s="271"/>
+      <c r="M15" s="269"/>
+      <c r="N15" s="270"/>
+      <c r="O15" s="271"/>
+      <c r="P15" s="269"/>
+      <c r="Q15" s="270"/>
+      <c r="R15" s="271"/>
+      <c r="S15" s="269"/>
+      <c r="T15" s="270"/>
+      <c r="U15" s="271"/>
+      <c r="V15" s="269"/>
+      <c r="W15" s="270"/>
+      <c r="X15" s="271"/>
+      <c r="Y15" s="266">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="259"/>
-      <c r="AA15" s="260"/>
+      <c r="Z15" s="267"/>
+      <c r="AA15" s="268"/>
       <c r="AB15" s="19"/>
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
@@ -5647,33 +5650,33 @@
         <v>51</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="258"/>
-      <c r="E16" s="259"/>
-      <c r="F16" s="260"/>
-      <c r="G16" s="281"/>
-      <c r="H16" s="282"/>
-      <c r="I16" s="283"/>
-      <c r="J16" s="281"/>
-      <c r="K16" s="282"/>
-      <c r="L16" s="283"/>
-      <c r="M16" s="281"/>
-      <c r="N16" s="282"/>
-      <c r="O16" s="283"/>
-      <c r="P16" s="281"/>
-      <c r="Q16" s="282"/>
-      <c r="R16" s="283"/>
-      <c r="S16" s="281"/>
-      <c r="T16" s="282"/>
-      <c r="U16" s="283"/>
-      <c r="V16" s="281"/>
-      <c r="W16" s="282"/>
-      <c r="X16" s="283"/>
-      <c r="Y16" s="258">
+      <c r="D16" s="266"/>
+      <c r="E16" s="267"/>
+      <c r="F16" s="268"/>
+      <c r="G16" s="269"/>
+      <c r="H16" s="270"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="269"/>
+      <c r="K16" s="270"/>
+      <c r="L16" s="271"/>
+      <c r="M16" s="269"/>
+      <c r="N16" s="270"/>
+      <c r="O16" s="271"/>
+      <c r="P16" s="269"/>
+      <c r="Q16" s="270"/>
+      <c r="R16" s="271"/>
+      <c r="S16" s="269"/>
+      <c r="T16" s="270"/>
+      <c r="U16" s="271"/>
+      <c r="V16" s="269"/>
+      <c r="W16" s="270"/>
+      <c r="X16" s="271"/>
+      <c r="Y16" s="266">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="259"/>
-      <c r="AA16" s="260"/>
+      <c r="Z16" s="267"/>
+      <c r="AA16" s="268"/>
       <c r="AB16" s="19"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
@@ -5684,54 +5687,54 @@
         <v>41</v>
       </c>
       <c r="C17" s="209"/>
-      <c r="D17" s="262">
+      <c r="D17" s="301">
         <f>SUM(D12:F16)</f>
         <v>465</v>
       </c>
-      <c r="E17" s="263"/>
-      <c r="F17" s="264"/>
-      <c r="G17" s="262">
+      <c r="E17" s="302"/>
+      <c r="F17" s="303"/>
+      <c r="G17" s="301">
         <f>SUM(G12:I16)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="263"/>
-      <c r="I17" s="264"/>
-      <c r="J17" s="262">
+      <c r="H17" s="302"/>
+      <c r="I17" s="303"/>
+      <c r="J17" s="301">
         <f>SUM(J12:L16)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="263"/>
-      <c r="L17" s="264"/>
-      <c r="M17" s="262">
+      <c r="K17" s="302"/>
+      <c r="L17" s="303"/>
+      <c r="M17" s="301">
         <f>SUM(M12:O16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="263"/>
-      <c r="O17" s="264"/>
-      <c r="P17" s="262">
+      <c r="N17" s="302"/>
+      <c r="O17" s="303"/>
+      <c r="P17" s="301">
         <f>SUM(P12:R16)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="263"/>
-      <c r="R17" s="264"/>
-      <c r="S17" s="262">
+      <c r="Q17" s="302"/>
+      <c r="R17" s="303"/>
+      <c r="S17" s="301">
         <f>SUM(S12:U16)</f>
         <v>0</v>
       </c>
-      <c r="T17" s="263"/>
-      <c r="U17" s="264"/>
-      <c r="V17" s="262">
+      <c r="T17" s="302"/>
+      <c r="U17" s="303"/>
+      <c r="V17" s="301">
         <f>SUM(V12:X16)</f>
         <v>0</v>
       </c>
-      <c r="W17" s="263"/>
-      <c r="X17" s="264"/>
-      <c r="Y17" s="262">
+      <c r="W17" s="302"/>
+      <c r="X17" s="303"/>
+      <c r="Y17" s="301">
         <f>SUM(Y12:AA16)</f>
         <v>465</v>
       </c>
-      <c r="Z17" s="263"/>
-      <c r="AA17" s="264"/>
+      <c r="Z17" s="302"/>
+      <c r="AA17" s="303"/>
       <c r="AB17" s="19"/>
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
@@ -5744,36 +5747,36 @@
         <v>12</v>
       </c>
       <c r="C18" s="16"/>
-      <c r="D18" s="281">
-        <f>948</f>
-        <v>948</v>
-      </c>
-      <c r="E18" s="282"/>
-      <c r="F18" s="283"/>
-      <c r="G18" s="281"/>
-      <c r="H18" s="282"/>
-      <c r="I18" s="283"/>
-      <c r="J18" s="281"/>
-      <c r="K18" s="282"/>
-      <c r="L18" s="283"/>
-      <c r="M18" s="281"/>
-      <c r="N18" s="282"/>
-      <c r="O18" s="283"/>
-      <c r="P18" s="281"/>
-      <c r="Q18" s="282"/>
-      <c r="R18" s="283"/>
-      <c r="S18" s="281"/>
-      <c r="T18" s="282"/>
-      <c r="U18" s="283"/>
-      <c r="V18" s="281"/>
-      <c r="W18" s="282"/>
-      <c r="X18" s="283"/>
-      <c r="Y18" s="258">
+      <c r="D18" s="269">
+        <f>948+1246</f>
+        <v>2194</v>
+      </c>
+      <c r="E18" s="270"/>
+      <c r="F18" s="271"/>
+      <c r="G18" s="269"/>
+      <c r="H18" s="270"/>
+      <c r="I18" s="271"/>
+      <c r="J18" s="269"/>
+      <c r="K18" s="270"/>
+      <c r="L18" s="271"/>
+      <c r="M18" s="269"/>
+      <c r="N18" s="270"/>
+      <c r="O18" s="271"/>
+      <c r="P18" s="269"/>
+      <c r="Q18" s="270"/>
+      <c r="R18" s="271"/>
+      <c r="S18" s="269"/>
+      <c r="T18" s="270"/>
+      <c r="U18" s="271"/>
+      <c r="V18" s="269"/>
+      <c r="W18" s="270"/>
+      <c r="X18" s="271"/>
+      <c r="Y18" s="266">
         <f t="shared" si="0"/>
-        <v>948</v>
-      </c>
-      <c r="Z18" s="259"/>
-      <c r="AA18" s="260"/>
+        <v>2194</v>
+      </c>
+      <c r="Z18" s="267"/>
+      <c r="AA18" s="268"/>
       <c r="AB18" s="19"/>
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
@@ -5787,35 +5790,35 @@
         <v>104</v>
       </c>
       <c r="C19" s="16"/>
-      <c r="D19" s="281">
+      <c r="D19" s="269">
         <v>97</v>
       </c>
-      <c r="E19" s="282"/>
-      <c r="F19" s="283"/>
-      <c r="G19" s="281"/>
-      <c r="H19" s="282"/>
-      <c r="I19" s="283"/>
-      <c r="J19" s="281"/>
-      <c r="K19" s="282"/>
-      <c r="L19" s="283"/>
-      <c r="M19" s="281"/>
-      <c r="N19" s="282"/>
-      <c r="O19" s="283"/>
-      <c r="P19" s="281"/>
-      <c r="Q19" s="282"/>
-      <c r="R19" s="283"/>
-      <c r="S19" s="281"/>
-      <c r="T19" s="282"/>
-      <c r="U19" s="283"/>
-      <c r="V19" s="281"/>
-      <c r="W19" s="282"/>
-      <c r="X19" s="283"/>
-      <c r="Y19" s="258">
+      <c r="E19" s="270"/>
+      <c r="F19" s="271"/>
+      <c r="G19" s="269"/>
+      <c r="H19" s="270"/>
+      <c r="I19" s="271"/>
+      <c r="J19" s="269"/>
+      <c r="K19" s="270"/>
+      <c r="L19" s="271"/>
+      <c r="M19" s="269"/>
+      <c r="N19" s="270"/>
+      <c r="O19" s="271"/>
+      <c r="P19" s="269"/>
+      <c r="Q19" s="270"/>
+      <c r="R19" s="271"/>
+      <c r="S19" s="269"/>
+      <c r="T19" s="270"/>
+      <c r="U19" s="271"/>
+      <c r="V19" s="269"/>
+      <c r="W19" s="270"/>
+      <c r="X19" s="271"/>
+      <c r="Y19" s="266">
         <f>SUM(D19:X19)</f>
         <v>97</v>
       </c>
-      <c r="Z19" s="259"/>
-      <c r="AA19" s="260"/>
+      <c r="Z19" s="267"/>
+      <c r="AA19" s="268"/>
       <c r="AB19" s="19"/>
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
@@ -5829,35 +5832,35 @@
         <v>105</v>
       </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="258">
+      <c r="D20" s="266">
         <v>104</v>
       </c>
-      <c r="E20" s="259"/>
-      <c r="F20" s="260"/>
-      <c r="G20" s="281"/>
-      <c r="H20" s="282"/>
-      <c r="I20" s="283"/>
-      <c r="J20" s="281"/>
-      <c r="K20" s="282"/>
-      <c r="L20" s="283"/>
-      <c r="M20" s="281"/>
-      <c r="N20" s="282"/>
-      <c r="O20" s="283"/>
-      <c r="P20" s="281"/>
-      <c r="Q20" s="282"/>
-      <c r="R20" s="283"/>
-      <c r="S20" s="281"/>
-      <c r="T20" s="282"/>
-      <c r="U20" s="283"/>
-      <c r="V20" s="281"/>
-      <c r="W20" s="282"/>
-      <c r="X20" s="283"/>
-      <c r="Y20" s="258">
+      <c r="E20" s="267"/>
+      <c r="F20" s="268"/>
+      <c r="G20" s="269"/>
+      <c r="H20" s="270"/>
+      <c r="I20" s="271"/>
+      <c r="J20" s="269"/>
+      <c r="K20" s="270"/>
+      <c r="L20" s="271"/>
+      <c r="M20" s="269"/>
+      <c r="N20" s="270"/>
+      <c r="O20" s="271"/>
+      <c r="P20" s="269"/>
+      <c r="Q20" s="270"/>
+      <c r="R20" s="271"/>
+      <c r="S20" s="269"/>
+      <c r="T20" s="270"/>
+      <c r="U20" s="271"/>
+      <c r="V20" s="269"/>
+      <c r="W20" s="270"/>
+      <c r="X20" s="271"/>
+      <c r="Y20" s="266">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="Z20" s="259"/>
-      <c r="AA20" s="260"/>
+      <c r="Z20" s="267"/>
+      <c r="AA20" s="268"/>
       <c r="AB20" s="19"/>
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
@@ -5871,33 +5874,33 @@
         <v>20</v>
       </c>
       <c r="C21" s="16"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="259"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="281"/>
-      <c r="H21" s="282"/>
-      <c r="I21" s="283"/>
-      <c r="J21" s="281"/>
-      <c r="K21" s="282"/>
-      <c r="L21" s="283"/>
-      <c r="M21" s="281"/>
-      <c r="N21" s="282"/>
-      <c r="O21" s="283"/>
-      <c r="P21" s="281"/>
-      <c r="Q21" s="282"/>
-      <c r="R21" s="283"/>
-      <c r="S21" s="281"/>
-      <c r="T21" s="282"/>
-      <c r="U21" s="283"/>
-      <c r="V21" s="281"/>
-      <c r="W21" s="282"/>
-      <c r="X21" s="283"/>
-      <c r="Y21" s="258">
+      <c r="D21" s="266"/>
+      <c r="E21" s="267"/>
+      <c r="F21" s="268"/>
+      <c r="G21" s="269"/>
+      <c r="H21" s="270"/>
+      <c r="I21" s="271"/>
+      <c r="J21" s="269"/>
+      <c r="K21" s="270"/>
+      <c r="L21" s="271"/>
+      <c r="M21" s="269"/>
+      <c r="N21" s="270"/>
+      <c r="O21" s="271"/>
+      <c r="P21" s="269"/>
+      <c r="Q21" s="270"/>
+      <c r="R21" s="271"/>
+      <c r="S21" s="269"/>
+      <c r="T21" s="270"/>
+      <c r="U21" s="271"/>
+      <c r="V21" s="269"/>
+      <c r="W21" s="270"/>
+      <c r="X21" s="271"/>
+      <c r="Y21" s="266">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="259"/>
-      <c r="AA21" s="260"/>
+      <c r="Z21" s="267"/>
+      <c r="AA21" s="268"/>
       <c r="AB21" s="19"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
@@ -5911,33 +5914,33 @@
         <v>50</v>
       </c>
       <c r="C22" s="16"/>
-      <c r="D22" s="258"/>
-      <c r="E22" s="259"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="281"/>
-      <c r="H22" s="282"/>
-      <c r="I22" s="283"/>
-      <c r="J22" s="281"/>
-      <c r="K22" s="282"/>
-      <c r="L22" s="283"/>
-      <c r="M22" s="281"/>
-      <c r="N22" s="282"/>
-      <c r="O22" s="283"/>
-      <c r="P22" s="281"/>
-      <c r="Q22" s="282"/>
-      <c r="R22" s="283"/>
-      <c r="S22" s="281"/>
-      <c r="T22" s="282"/>
-      <c r="U22" s="283"/>
-      <c r="V22" s="281"/>
-      <c r="W22" s="282"/>
-      <c r="X22" s="283"/>
-      <c r="Y22" s="258">
+      <c r="D22" s="266"/>
+      <c r="E22" s="267"/>
+      <c r="F22" s="268"/>
+      <c r="G22" s="269"/>
+      <c r="H22" s="270"/>
+      <c r="I22" s="271"/>
+      <c r="J22" s="269"/>
+      <c r="K22" s="270"/>
+      <c r="L22" s="271"/>
+      <c r="M22" s="269"/>
+      <c r="N22" s="270"/>
+      <c r="O22" s="271"/>
+      <c r="P22" s="269"/>
+      <c r="Q22" s="270"/>
+      <c r="R22" s="271"/>
+      <c r="S22" s="269"/>
+      <c r="T22" s="270"/>
+      <c r="U22" s="271"/>
+      <c r="V22" s="269"/>
+      <c r="W22" s="270"/>
+      <c r="X22" s="271"/>
+      <c r="Y22" s="266">
         <f>SUM(D22:X22)</f>
         <v>0</v>
       </c>
-      <c r="Z22" s="259"/>
-      <c r="AA22" s="260"/>
+      <c r="Z22" s="267"/>
+      <c r="AA22" s="268"/>
       <c r="AB22" s="19"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
@@ -5951,33 +5954,33 @@
         <v>49</v>
       </c>
       <c r="C23" s="16"/>
-      <c r="D23" s="258"/>
-      <c r="E23" s="259"/>
-      <c r="F23" s="260"/>
-      <c r="G23" s="281"/>
-      <c r="H23" s="282"/>
-      <c r="I23" s="283"/>
-      <c r="J23" s="281"/>
-      <c r="K23" s="282"/>
-      <c r="L23" s="283"/>
-      <c r="M23" s="281"/>
-      <c r="N23" s="282"/>
-      <c r="O23" s="283"/>
-      <c r="P23" s="281"/>
-      <c r="Q23" s="282"/>
-      <c r="R23" s="283"/>
-      <c r="S23" s="281"/>
-      <c r="T23" s="282"/>
-      <c r="U23" s="283"/>
-      <c r="V23" s="258"/>
-      <c r="W23" s="259"/>
-      <c r="X23" s="260"/>
-      <c r="Y23" s="258">
+      <c r="D23" s="266"/>
+      <c r="E23" s="267"/>
+      <c r="F23" s="268"/>
+      <c r="G23" s="269"/>
+      <c r="H23" s="270"/>
+      <c r="I23" s="271"/>
+      <c r="J23" s="269"/>
+      <c r="K23" s="270"/>
+      <c r="L23" s="271"/>
+      <c r="M23" s="269"/>
+      <c r="N23" s="270"/>
+      <c r="O23" s="271"/>
+      <c r="P23" s="269"/>
+      <c r="Q23" s="270"/>
+      <c r="R23" s="271"/>
+      <c r="S23" s="269"/>
+      <c r="T23" s="270"/>
+      <c r="U23" s="271"/>
+      <c r="V23" s="266"/>
+      <c r="W23" s="267"/>
+      <c r="X23" s="268"/>
+      <c r="Y23" s="266">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="259"/>
-      <c r="AA23" s="260"/>
+      <c r="Z23" s="267"/>
+      <c r="AA23" s="268"/>
       <c r="AB23" s="19"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
@@ -5991,33 +5994,33 @@
         <v>36</v>
       </c>
       <c r="C24" s="16"/>
-      <c r="D24" s="258"/>
-      <c r="E24" s="259"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="258"/>
-      <c r="H24" s="259"/>
-      <c r="I24" s="260"/>
-      <c r="J24" s="258"/>
-      <c r="K24" s="259"/>
-      <c r="L24" s="260"/>
-      <c r="M24" s="258"/>
-      <c r="N24" s="259"/>
-      <c r="O24" s="260"/>
-      <c r="P24" s="258"/>
-      <c r="Q24" s="259"/>
-      <c r="R24" s="260"/>
-      <c r="S24" s="258"/>
-      <c r="T24" s="259"/>
-      <c r="U24" s="260"/>
-      <c r="V24" s="258"/>
-      <c r="W24" s="259"/>
-      <c r="X24" s="260"/>
-      <c r="Y24" s="258">
+      <c r="D24" s="266"/>
+      <c r="E24" s="267"/>
+      <c r="F24" s="268"/>
+      <c r="G24" s="266"/>
+      <c r="H24" s="267"/>
+      <c r="I24" s="268"/>
+      <c r="J24" s="266"/>
+      <c r="K24" s="267"/>
+      <c r="L24" s="268"/>
+      <c r="M24" s="266"/>
+      <c r="N24" s="267"/>
+      <c r="O24" s="268"/>
+      <c r="P24" s="266"/>
+      <c r="Q24" s="267"/>
+      <c r="R24" s="268"/>
+      <c r="S24" s="266"/>
+      <c r="T24" s="267"/>
+      <c r="U24" s="268"/>
+      <c r="V24" s="266"/>
+      <c r="W24" s="267"/>
+      <c r="X24" s="268"/>
+      <c r="Y24" s="266">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="259"/>
-      <c r="AA24" s="260"/>
+      <c r="Z24" s="267"/>
+      <c r="AA24" s="268"/>
       <c r="AB24" s="19"/>
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
@@ -6030,33 +6033,33 @@
         <v>37</v>
       </c>
       <c r="C25" s="16"/>
-      <c r="D25" s="258"/>
-      <c r="E25" s="259"/>
-      <c r="F25" s="260"/>
-      <c r="G25" s="258"/>
-      <c r="H25" s="259"/>
-      <c r="I25" s="260"/>
-      <c r="J25" s="258"/>
-      <c r="K25" s="259"/>
-      <c r="L25" s="260"/>
-      <c r="M25" s="261"/>
-      <c r="N25" s="259"/>
-      <c r="O25" s="260"/>
-      <c r="P25" s="258"/>
-      <c r="Q25" s="259"/>
-      <c r="R25" s="260"/>
-      <c r="S25" s="258"/>
-      <c r="T25" s="259"/>
-      <c r="U25" s="260"/>
-      <c r="V25" s="258"/>
-      <c r="W25" s="259"/>
-      <c r="X25" s="260"/>
-      <c r="Y25" s="258">
+      <c r="D25" s="266"/>
+      <c r="E25" s="267"/>
+      <c r="F25" s="268"/>
+      <c r="G25" s="266"/>
+      <c r="H25" s="267"/>
+      <c r="I25" s="268"/>
+      <c r="J25" s="266"/>
+      <c r="K25" s="267"/>
+      <c r="L25" s="268"/>
+      <c r="M25" s="315"/>
+      <c r="N25" s="267"/>
+      <c r="O25" s="268"/>
+      <c r="P25" s="266"/>
+      <c r="Q25" s="267"/>
+      <c r="R25" s="268"/>
+      <c r="S25" s="266"/>
+      <c r="T25" s="267"/>
+      <c r="U25" s="268"/>
+      <c r="V25" s="266"/>
+      <c r="W25" s="267"/>
+      <c r="X25" s="268"/>
+      <c r="Y25" s="266">
         <f>SUM(D25:X25)</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="259"/>
-      <c r="AA25" s="260"/>
+      <c r="Z25" s="267"/>
+      <c r="AA25" s="268"/>
       <c r="AB25" s="19"/>
       <c r="AC25" s="16"/>
       <c r="AD25" s="16"/>
@@ -6067,59 +6070,59 @@
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="258">
+      <c r="D26" s="266">
         <f>SUM(D17:F25)</f>
-        <v>1614</v>
-      </c>
-      <c r="E26" s="259"/>
-      <c r="F26" s="260"/>
-      <c r="G26" s="258">
+        <v>2860</v>
+      </c>
+      <c r="E26" s="267"/>
+      <c r="F26" s="268"/>
+      <c r="G26" s="266">
         <f>SUM(G17:I25)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="259"/>
-      <c r="I26" s="260"/>
-      <c r="J26" s="258">
+      <c r="H26" s="267"/>
+      <c r="I26" s="268"/>
+      <c r="J26" s="266">
         <f>SUM(J17:L25)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="259"/>
-      <c r="L26" s="260"/>
-      <c r="M26" s="258">
+      <c r="K26" s="267"/>
+      <c r="L26" s="268"/>
+      <c r="M26" s="266">
         <f>SUM(M17:O25)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="259"/>
-      <c r="O26" s="260"/>
-      <c r="P26" s="258">
+      <c r="N26" s="267"/>
+      <c r="O26" s="268"/>
+      <c r="P26" s="266">
         <f>SUM(P17:R25)</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="259"/>
-      <c r="R26" s="260"/>
-      <c r="S26" s="258">
+      <c r="Q26" s="267"/>
+      <c r="R26" s="268"/>
+      <c r="S26" s="266">
         <f>SUM(S17:U25)</f>
         <v>0</v>
       </c>
-      <c r="T26" s="259"/>
-      <c r="U26" s="260"/>
-      <c r="V26" s="258">
+      <c r="T26" s="267"/>
+      <c r="U26" s="268"/>
+      <c r="V26" s="266">
         <f>SUM(V17:X25)</f>
         <v>0</v>
       </c>
-      <c r="W26" s="259"/>
-      <c r="X26" s="260"/>
+      <c r="W26" s="267"/>
+      <c r="X26" s="268"/>
       <c r="Y26" s="20" t="s">
         <v>100</v>
       </c>
       <c r="Z26" s="16"/>
       <c r="AA26" s="16"/>
-      <c r="AB26" s="270">
+      <c r="AB26" s="304">
         <f>SUM(Y17:Y25)</f>
-        <v>1614</v>
-      </c>
-      <c r="AC26" s="271"/>
-      <c r="AD26" s="271"/>
+        <v>2860</v>
+      </c>
+      <c r="AC26" s="305"/>
+      <c r="AD26" s="305"/>
     </row>
     <row r="27" spans="1:32" ht="18" customHeight="1">
       <c r="A27" s="43" t="s">
@@ -6127,27 +6130,27 @@
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="277"/>
-      <c r="E27" s="268"/>
-      <c r="F27" s="268"/>
-      <c r="G27" s="268"/>
-      <c r="H27" s="268"/>
-      <c r="I27" s="268"/>
-      <c r="J27" s="268"/>
-      <c r="K27" s="268"/>
-      <c r="L27" s="268"/>
-      <c r="M27" s="268"/>
-      <c r="N27" s="268"/>
-      <c r="O27" s="268"/>
-      <c r="P27" s="268"/>
-      <c r="Q27" s="268"/>
-      <c r="R27" s="268"/>
-      <c r="S27" s="268"/>
-      <c r="T27" s="268"/>
-      <c r="U27" s="268"/>
-      <c r="V27" s="268"/>
-      <c r="W27" s="268"/>
-      <c r="X27" s="269"/>
+      <c r="D27" s="306"/>
+      <c r="E27" s="285"/>
+      <c r="F27" s="285"/>
+      <c r="G27" s="285"/>
+      <c r="H27" s="285"/>
+      <c r="I27" s="285"/>
+      <c r="J27" s="285"/>
+      <c r="K27" s="285"/>
+      <c r="L27" s="285"/>
+      <c r="M27" s="285"/>
+      <c r="N27" s="285"/>
+      <c r="O27" s="285"/>
+      <c r="P27" s="285"/>
+      <c r="Q27" s="285"/>
+      <c r="R27" s="285"/>
+      <c r="S27" s="285"/>
+      <c r="T27" s="285"/>
+      <c r="U27" s="285"/>
+      <c r="V27" s="285"/>
+      <c r="W27" s="285"/>
+      <c r="X27" s="286"/>
       <c r="Y27" s="20" t="s">
         <v>28</v>
       </c>
@@ -6198,29 +6201,29 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
-      <c r="E29" s="278" t="str">
+      <c r="E29" s="307" t="str">
         <f>IF(AB26=0,"零",IF(AB26-INT(AB26)=0,TEXT(AB26,"[DBNUM2]")&amp;"元整",IF(INT(AB26)=0,IF(INT(AB26*10)-AB26*10=0,TEXT((INT(AB26*10)-INT(AB26)*10),"[DBNUM2]")&amp;"角整",IF(INT(AB26*10)-INT(AB26)*10=0,TEXT(RIGHT(AB26,1),"[DBNUM2]")&amp;"分",TEXT(INT(AB26*10)-INT(AB26)*10,"[DBNUM2]")&amp;"角"&amp;TEXT(RIGHT(AB26,1),"[DBNUM2]")&amp;"分")),IF(INT(AB26*10)-AB26*10=0,TEXT(INT(AB26),"[DBNUM2]")&amp;"元"&amp;TEXT((INT(AB26*10)-INT(AB26)*10),"[DBNUM2]")&amp;"角整",TEXT(INT(AB26),"[DBNUM2]")&amp;"元"&amp;IF(INT(AB26*10)-INT(AB26)*10=0,"零",TEXT(INT(AB26*10)-INT(AB26)*10,"[DBNUM2]")&amp;"角")&amp;TEXT(RIGHT(AB26,1),"[DBNUM2]")&amp;"分"))))</f>
-        <v>壹仟陆佰壹拾肆元整</v>
-      </c>
-      <c r="F29" s="279"/>
-      <c r="G29" s="279"/>
-      <c r="H29" s="279"/>
-      <c r="I29" s="279"/>
-      <c r="J29" s="279"/>
-      <c r="K29" s="279"/>
-      <c r="L29" s="279"/>
-      <c r="M29" s="279"/>
-      <c r="N29" s="279"/>
-      <c r="O29" s="279"/>
-      <c r="P29" s="279"/>
-      <c r="Q29" s="279"/>
-      <c r="R29" s="279"/>
-      <c r="S29" s="279"/>
-      <c r="T29" s="279"/>
-      <c r="U29" s="279"/>
-      <c r="V29" s="279"/>
-      <c r="W29" s="279"/>
-      <c r="X29" s="280"/>
+        <v>贰仟捌佰陆拾元整</v>
+      </c>
+      <c r="F29" s="308"/>
+      <c r="G29" s="308"/>
+      <c r="H29" s="308"/>
+      <c r="I29" s="308"/>
+      <c r="J29" s="308"/>
+      <c r="K29" s="308"/>
+      <c r="L29" s="308"/>
+      <c r="M29" s="308"/>
+      <c r="N29" s="308"/>
+      <c r="O29" s="308"/>
+      <c r="P29" s="308"/>
+      <c r="Q29" s="308"/>
+      <c r="R29" s="308"/>
+      <c r="S29" s="308"/>
+      <c r="T29" s="308"/>
+      <c r="U29" s="308"/>
+      <c r="V29" s="308"/>
+      <c r="W29" s="308"/>
+      <c r="X29" s="309"/>
       <c r="Y29" s="20" t="s">
         <v>30</v>
       </c>
@@ -6257,238 +6260,238 @@
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
       <c r="X30" s="16"/>
-      <c r="Y30" s="310"/>
-      <c r="Z30" s="310"/>
-      <c r="AA30" s="310"/>
-      <c r="AB30" s="310"/>
-      <c r="AC30" s="310"/>
-      <c r="AD30" s="310"/>
+      <c r="Y30" s="259"/>
+      <c r="Z30" s="259"/>
+      <c r="AA30" s="259"/>
+      <c r="AB30" s="259"/>
+      <c r="AC30" s="259"/>
+      <c r="AD30" s="259"/>
     </row>
     <row r="31" spans="1:32" ht="18" customHeight="1">
-      <c r="A31" s="272"/>
-      <c r="B31" s="273"/>
-      <c r="C31" s="273"/>
-      <c r="D31" s="273"/>
-      <c r="E31" s="273"/>
-      <c r="F31" s="273"/>
-      <c r="G31" s="273"/>
-      <c r="H31" s="273"/>
-      <c r="I31" s="273"/>
-      <c r="J31" s="273"/>
-      <c r="K31" s="273"/>
-      <c r="L31" s="273"/>
-      <c r="M31" s="273"/>
-      <c r="N31" s="273"/>
-      <c r="O31" s="273"/>
-      <c r="P31" s="273"/>
-      <c r="Q31" s="273"/>
-      <c r="R31" s="273"/>
-      <c r="S31" s="273"/>
-      <c r="T31" s="273"/>
-      <c r="U31" s="273"/>
-      <c r="V31" s="273"/>
-      <c r="W31" s="273"/>
-      <c r="X31" s="273"/>
-      <c r="Y31" s="273"/>
-      <c r="Z31" s="273"/>
-      <c r="AA31" s="273"/>
-      <c r="AB31" s="273"/>
-      <c r="AC31" s="273"/>
-      <c r="AD31" s="273"/>
+      <c r="A31" s="281"/>
+      <c r="B31" s="256"/>
+      <c r="C31" s="256"/>
+      <c r="D31" s="256"/>
+      <c r="E31" s="256"/>
+      <c r="F31" s="256"/>
+      <c r="G31" s="256"/>
+      <c r="H31" s="256"/>
+      <c r="I31" s="256"/>
+      <c r="J31" s="256"/>
+      <c r="K31" s="256"/>
+      <c r="L31" s="256"/>
+      <c r="M31" s="256"/>
+      <c r="N31" s="256"/>
+      <c r="O31" s="256"/>
+      <c r="P31" s="256"/>
+      <c r="Q31" s="256"/>
+      <c r="R31" s="256"/>
+      <c r="S31" s="256"/>
+      <c r="T31" s="256"/>
+      <c r="U31" s="256"/>
+      <c r="V31" s="256"/>
+      <c r="W31" s="256"/>
+      <c r="X31" s="256"/>
+      <c r="Y31" s="256"/>
+      <c r="Z31" s="256"/>
+      <c r="AA31" s="256"/>
+      <c r="AB31" s="256"/>
+      <c r="AC31" s="256"/>
+      <c r="AD31" s="256"/>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1">
-      <c r="A32" s="274"/>
-      <c r="B32" s="273"/>
-      <c r="C32" s="273"/>
-      <c r="D32" s="273"/>
-      <c r="E32" s="273"/>
-      <c r="F32" s="273"/>
-      <c r="G32" s="273"/>
-      <c r="H32" s="273"/>
-      <c r="I32" s="273"/>
-      <c r="J32" s="273"/>
-      <c r="K32" s="273"/>
-      <c r="L32" s="273"/>
-      <c r="M32" s="273"/>
-      <c r="N32" s="273"/>
-      <c r="O32" s="273"/>
-      <c r="P32" s="273"/>
-      <c r="Q32" s="273"/>
-      <c r="R32" s="273"/>
-      <c r="S32" s="273"/>
-      <c r="T32" s="273"/>
-      <c r="U32" s="273"/>
-      <c r="V32" s="273"/>
-      <c r="W32" s="273"/>
-      <c r="X32" s="273"/>
-      <c r="Y32" s="273"/>
-      <c r="Z32" s="273"/>
-      <c r="AA32" s="273"/>
-      <c r="AB32" s="273"/>
-      <c r="AC32" s="273"/>
-      <c r="AD32" s="273"/>
+      <c r="A32" s="255"/>
+      <c r="B32" s="256"/>
+      <c r="C32" s="256"/>
+      <c r="D32" s="256"/>
+      <c r="E32" s="256"/>
+      <c r="F32" s="256"/>
+      <c r="G32" s="256"/>
+      <c r="H32" s="256"/>
+      <c r="I32" s="256"/>
+      <c r="J32" s="256"/>
+      <c r="K32" s="256"/>
+      <c r="L32" s="256"/>
+      <c r="M32" s="256"/>
+      <c r="N32" s="256"/>
+      <c r="O32" s="256"/>
+      <c r="P32" s="256"/>
+      <c r="Q32" s="256"/>
+      <c r="R32" s="256"/>
+      <c r="S32" s="256"/>
+      <c r="T32" s="256"/>
+      <c r="U32" s="256"/>
+      <c r="V32" s="256"/>
+      <c r="W32" s="256"/>
+      <c r="X32" s="256"/>
+      <c r="Y32" s="256"/>
+      <c r="Z32" s="256"/>
+      <c r="AA32" s="256"/>
+      <c r="AB32" s="256"/>
+      <c r="AC32" s="256"/>
+      <c r="AD32" s="256"/>
     </row>
     <row r="33" spans="1:31" ht="18" customHeight="1">
-      <c r="A33" s="274"/>
-      <c r="B33" s="273"/>
-      <c r="C33" s="273"/>
-      <c r="D33" s="273"/>
-      <c r="E33" s="273"/>
-      <c r="F33" s="273"/>
-      <c r="G33" s="273"/>
-      <c r="H33" s="273"/>
-      <c r="I33" s="273"/>
-      <c r="J33" s="273"/>
-      <c r="K33" s="273"/>
-      <c r="L33" s="273"/>
-      <c r="M33" s="273"/>
-      <c r="N33" s="273"/>
-      <c r="O33" s="273"/>
-      <c r="P33" s="273"/>
-      <c r="Q33" s="273"/>
-      <c r="R33" s="273"/>
-      <c r="S33" s="273"/>
-      <c r="T33" s="273"/>
-      <c r="U33" s="273"/>
-      <c r="V33" s="273"/>
-      <c r="W33" s="273"/>
-      <c r="X33" s="273"/>
-      <c r="Y33" s="273"/>
-      <c r="Z33" s="273"/>
-      <c r="AA33" s="273"/>
-      <c r="AB33" s="273"/>
-      <c r="AC33" s="273"/>
-      <c r="AD33" s="273"/>
+      <c r="A33" s="255"/>
+      <c r="B33" s="256"/>
+      <c r="C33" s="256"/>
+      <c r="D33" s="256"/>
+      <c r="E33" s="256"/>
+      <c r="F33" s="256"/>
+      <c r="G33" s="256"/>
+      <c r="H33" s="256"/>
+      <c r="I33" s="256"/>
+      <c r="J33" s="256"/>
+      <c r="K33" s="256"/>
+      <c r="L33" s="256"/>
+      <c r="M33" s="256"/>
+      <c r="N33" s="256"/>
+      <c r="O33" s="256"/>
+      <c r="P33" s="256"/>
+      <c r="Q33" s="256"/>
+      <c r="R33" s="256"/>
+      <c r="S33" s="256"/>
+      <c r="T33" s="256"/>
+      <c r="U33" s="256"/>
+      <c r="V33" s="256"/>
+      <c r="W33" s="256"/>
+      <c r="X33" s="256"/>
+      <c r="Y33" s="256"/>
+      <c r="Z33" s="256"/>
+      <c r="AA33" s="256"/>
+      <c r="AB33" s="256"/>
+      <c r="AC33" s="256"/>
+      <c r="AD33" s="256"/>
     </row>
     <row r="34" spans="1:31" ht="18" customHeight="1">
-      <c r="A34" s="274"/>
-      <c r="B34" s="273"/>
-      <c r="C34" s="273"/>
-      <c r="D34" s="273"/>
-      <c r="E34" s="273"/>
-      <c r="F34" s="273"/>
-      <c r="G34" s="273"/>
-      <c r="H34" s="273"/>
-      <c r="I34" s="273"/>
-      <c r="J34" s="273"/>
-      <c r="K34" s="273"/>
-      <c r="L34" s="273"/>
-      <c r="M34" s="273"/>
-      <c r="N34" s="273"/>
-      <c r="O34" s="273"/>
-      <c r="P34" s="273"/>
-      <c r="Q34" s="273"/>
-      <c r="R34" s="273"/>
-      <c r="S34" s="273"/>
-      <c r="T34" s="273"/>
-      <c r="U34" s="273"/>
-      <c r="V34" s="273"/>
-      <c r="W34" s="273"/>
-      <c r="X34" s="273"/>
-      <c r="Y34" s="273"/>
-      <c r="Z34" s="273"/>
-      <c r="AA34" s="273"/>
-      <c r="AB34" s="273"/>
-      <c r="AC34" s="273"/>
-      <c r="AD34" s="273"/>
+      <c r="A34" s="255"/>
+      <c r="B34" s="256"/>
+      <c r="C34" s="256"/>
+      <c r="D34" s="256"/>
+      <c r="E34" s="256"/>
+      <c r="F34" s="256"/>
+      <c r="G34" s="256"/>
+      <c r="H34" s="256"/>
+      <c r="I34" s="256"/>
+      <c r="J34" s="256"/>
+      <c r="K34" s="256"/>
+      <c r="L34" s="256"/>
+      <c r="M34" s="256"/>
+      <c r="N34" s="256"/>
+      <c r="O34" s="256"/>
+      <c r="P34" s="256"/>
+      <c r="Q34" s="256"/>
+      <c r="R34" s="256"/>
+      <c r="S34" s="256"/>
+      <c r="T34" s="256"/>
+      <c r="U34" s="256"/>
+      <c r="V34" s="256"/>
+      <c r="W34" s="256"/>
+      <c r="X34" s="256"/>
+      <c r="Y34" s="256"/>
+      <c r="Z34" s="256"/>
+      <c r="AA34" s="256"/>
+      <c r="AB34" s="256"/>
+      <c r="AC34" s="256"/>
+      <c r="AD34" s="256"/>
     </row>
     <row r="35" spans="1:31" ht="18" customHeight="1">
-      <c r="A35" s="274"/>
-      <c r="B35" s="273"/>
-      <c r="C35" s="273"/>
-      <c r="D35" s="273"/>
-      <c r="E35" s="273"/>
-      <c r="F35" s="273"/>
-      <c r="G35" s="273"/>
-      <c r="H35" s="273"/>
-      <c r="I35" s="273"/>
-      <c r="J35" s="273"/>
-      <c r="K35" s="273"/>
-      <c r="L35" s="273"/>
-      <c r="M35" s="273"/>
-      <c r="N35" s="273"/>
-      <c r="O35" s="273"/>
-      <c r="P35" s="273"/>
-      <c r="Q35" s="273"/>
-      <c r="R35" s="273"/>
-      <c r="S35" s="273"/>
-      <c r="T35" s="273"/>
-      <c r="U35" s="273"/>
-      <c r="V35" s="273"/>
-      <c r="W35" s="273"/>
-      <c r="X35" s="273"/>
-      <c r="Y35" s="273"/>
-      <c r="Z35" s="273"/>
-      <c r="AA35" s="273"/>
-      <c r="AB35" s="273"/>
-      <c r="AC35" s="273"/>
-      <c r="AD35" s="273"/>
+      <c r="A35" s="255"/>
+      <c r="B35" s="256"/>
+      <c r="C35" s="256"/>
+      <c r="D35" s="256"/>
+      <c r="E35" s="256"/>
+      <c r="F35" s="256"/>
+      <c r="G35" s="256"/>
+      <c r="H35" s="256"/>
+      <c r="I35" s="256"/>
+      <c r="J35" s="256"/>
+      <c r="K35" s="256"/>
+      <c r="L35" s="256"/>
+      <c r="M35" s="256"/>
+      <c r="N35" s="256"/>
+      <c r="O35" s="256"/>
+      <c r="P35" s="256"/>
+      <c r="Q35" s="256"/>
+      <c r="R35" s="256"/>
+      <c r="S35" s="256"/>
+      <c r="T35" s="256"/>
+      <c r="U35" s="256"/>
+      <c r="V35" s="256"/>
+      <c r="W35" s="256"/>
+      <c r="X35" s="256"/>
+      <c r="Y35" s="256"/>
+      <c r="Z35" s="256"/>
+      <c r="AA35" s="256"/>
+      <c r="AB35" s="256"/>
+      <c r="AC35" s="256"/>
+      <c r="AD35" s="256"/>
     </row>
     <row r="36" spans="1:31" ht="18" customHeight="1">
-      <c r="A36" s="272"/>
-      <c r="B36" s="273"/>
-      <c r="C36" s="273"/>
-      <c r="D36" s="273"/>
-      <c r="E36" s="273"/>
-      <c r="F36" s="273"/>
-      <c r="G36" s="273"/>
-      <c r="H36" s="273"/>
-      <c r="I36" s="273"/>
-      <c r="J36" s="273"/>
-      <c r="K36" s="273"/>
-      <c r="L36" s="273"/>
-      <c r="M36" s="273"/>
-      <c r="N36" s="273"/>
-      <c r="O36" s="273"/>
-      <c r="P36" s="273"/>
-      <c r="Q36" s="273"/>
-      <c r="R36" s="273"/>
-      <c r="S36" s="273"/>
-      <c r="T36" s="273"/>
-      <c r="U36" s="273"/>
-      <c r="V36" s="273"/>
-      <c r="W36" s="273"/>
-      <c r="X36" s="273"/>
-      <c r="Y36" s="273"/>
-      <c r="Z36" s="273"/>
-      <c r="AA36" s="273"/>
-      <c r="AB36" s="273"/>
-      <c r="AC36" s="273"/>
-      <c r="AD36" s="273"/>
+      <c r="A36" s="281"/>
+      <c r="B36" s="256"/>
+      <c r="C36" s="256"/>
+      <c r="D36" s="256"/>
+      <c r="E36" s="256"/>
+      <c r="F36" s="256"/>
+      <c r="G36" s="256"/>
+      <c r="H36" s="256"/>
+      <c r="I36" s="256"/>
+      <c r="J36" s="256"/>
+      <c r="K36" s="256"/>
+      <c r="L36" s="256"/>
+      <c r="M36" s="256"/>
+      <c r="N36" s="256"/>
+      <c r="O36" s="256"/>
+      <c r="P36" s="256"/>
+      <c r="Q36" s="256"/>
+      <c r="R36" s="256"/>
+      <c r="S36" s="256"/>
+      <c r="T36" s="256"/>
+      <c r="U36" s="256"/>
+      <c r="V36" s="256"/>
+      <c r="W36" s="256"/>
+      <c r="X36" s="256"/>
+      <c r="Y36" s="256"/>
+      <c r="Z36" s="256"/>
+      <c r="AA36" s="256"/>
+      <c r="AB36" s="256"/>
+      <c r="AC36" s="256"/>
+      <c r="AD36" s="256"/>
     </row>
     <row r="37" spans="1:31" ht="24.75" customHeight="1">
-      <c r="A37" s="302" t="s">
+      <c r="A37" s="278" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="302"/>
-      <c r="C37" s="302"/>
-      <c r="D37" s="302"/>
-      <c r="E37" s="302"/>
-      <c r="F37" s="302"/>
-      <c r="G37" s="302"/>
-      <c r="H37" s="302"/>
-      <c r="I37" s="302"/>
-      <c r="J37" s="302"/>
-      <c r="K37" s="302"/>
-      <c r="L37" s="302"/>
-      <c r="M37" s="302"/>
-      <c r="N37" s="302"/>
-      <c r="O37" s="302"/>
-      <c r="P37" s="302"/>
-      <c r="Q37" s="302"/>
-      <c r="R37" s="302"/>
-      <c r="S37" s="302"/>
-      <c r="T37" s="302"/>
-      <c r="U37" s="302"/>
-      <c r="V37" s="302"/>
-      <c r="W37" s="302"/>
-      <c r="X37" s="302"/>
-      <c r="Y37" s="302"/>
-      <c r="Z37" s="302"/>
-      <c r="AA37" s="302"/>
-      <c r="AB37" s="302"/>
-      <c r="AC37" s="302"/>
-      <c r="AD37" s="302"/>
+      <c r="B37" s="278"/>
+      <c r="C37" s="278"/>
+      <c r="D37" s="278"/>
+      <c r="E37" s="278"/>
+      <c r="F37" s="278"/>
+      <c r="G37" s="278"/>
+      <c r="H37" s="278"/>
+      <c r="I37" s="278"/>
+      <c r="J37" s="278"/>
+      <c r="K37" s="278"/>
+      <c r="L37" s="278"/>
+      <c r="M37" s="278"/>
+      <c r="N37" s="278"/>
+      <c r="O37" s="278"/>
+      <c r="P37" s="278"/>
+      <c r="Q37" s="278"/>
+      <c r="R37" s="278"/>
+      <c r="S37" s="278"/>
+      <c r="T37" s="278"/>
+      <c r="U37" s="278"/>
+      <c r="V37" s="278"/>
+      <c r="W37" s="278"/>
+      <c r="X37" s="278"/>
+      <c r="Y37" s="278"/>
+      <c r="Z37" s="278"/>
+      <c r="AA37" s="278"/>
+      <c r="AB37" s="278"/>
+      <c r="AC37" s="278"/>
+      <c r="AD37" s="278"/>
     </row>
     <row r="38" spans="1:31" ht="16.5" customHeight="1">
       <c r="A38" s="43"/>
@@ -6528,171 +6531,171 @@
       <c r="Y38" s="16"/>
       <c r="Z38" s="16"/>
       <c r="AA38" s="16"/>
-      <c r="AB38" s="303" t="s">
+      <c r="AB38" s="279" t="s">
         <v>5</v>
       </c>
-      <c r="AC38" s="304"/>
-      <c r="AD38" s="304"/>
+      <c r="AC38" s="280"/>
+      <c r="AD38" s="280"/>
     </row>
     <row r="39" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A39" s="255"/>
-      <c r="B39" s="255"/>
-      <c r="C39" s="256"/>
-      <c r="D39" s="252"/>
-      <c r="E39" s="253"/>
-      <c r="F39" s="253"/>
-      <c r="G39" s="254"/>
-      <c r="H39" s="257"/>
-      <c r="I39" s="254"/>
-      <c r="J39" s="257"/>
-      <c r="K39" s="254"/>
-      <c r="L39" s="267"/>
-      <c r="M39" s="268"/>
-      <c r="N39" s="268"/>
-      <c r="O39" s="268"/>
-      <c r="P39" s="268"/>
-      <c r="Q39" s="268"/>
-      <c r="R39" s="268"/>
-      <c r="S39" s="268"/>
-      <c r="T39" s="268"/>
-      <c r="U39" s="268"/>
-      <c r="V39" s="268"/>
-      <c r="W39" s="268"/>
-      <c r="X39" s="268"/>
-      <c r="Y39" s="268"/>
-      <c r="Z39" s="268"/>
-      <c r="AA39" s="269"/>
-      <c r="AB39" s="265"/>
-      <c r="AC39" s="266"/>
-      <c r="AD39" s="266"/>
+      <c r="A39" s="313"/>
+      <c r="B39" s="313"/>
+      <c r="C39" s="314"/>
+      <c r="D39" s="291"/>
+      <c r="E39" s="292"/>
+      <c r="F39" s="292"/>
+      <c r="G39" s="288"/>
+      <c r="H39" s="287"/>
+      <c r="I39" s="288"/>
+      <c r="J39" s="287"/>
+      <c r="K39" s="288"/>
+      <c r="L39" s="284"/>
+      <c r="M39" s="285"/>
+      <c r="N39" s="285"/>
+      <c r="O39" s="285"/>
+      <c r="P39" s="285"/>
+      <c r="Q39" s="285"/>
+      <c r="R39" s="285"/>
+      <c r="S39" s="285"/>
+      <c r="T39" s="285"/>
+      <c r="U39" s="285"/>
+      <c r="V39" s="285"/>
+      <c r="W39" s="285"/>
+      <c r="X39" s="285"/>
+      <c r="Y39" s="285"/>
+      <c r="Z39" s="285"/>
+      <c r="AA39" s="286"/>
+      <c r="AB39" s="282"/>
+      <c r="AC39" s="283"/>
+      <c r="AD39" s="283"/>
     </row>
     <row r="40" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A40" s="275"/>
-      <c r="B40" s="275"/>
-      <c r="C40" s="276"/>
-      <c r="D40" s="252"/>
-      <c r="E40" s="253"/>
-      <c r="F40" s="253"/>
-      <c r="G40" s="254"/>
-      <c r="H40" s="257"/>
-      <c r="I40" s="254"/>
-      <c r="J40" s="257"/>
-      <c r="K40" s="254"/>
-      <c r="L40" s="267"/>
-      <c r="M40" s="268"/>
-      <c r="N40" s="268"/>
-      <c r="O40" s="268"/>
-      <c r="P40" s="268"/>
-      <c r="Q40" s="268"/>
-      <c r="R40" s="268"/>
-      <c r="S40" s="268"/>
-      <c r="T40" s="268"/>
-      <c r="U40" s="268"/>
-      <c r="V40" s="268"/>
-      <c r="W40" s="268"/>
-      <c r="X40" s="268"/>
-      <c r="Y40" s="268"/>
-      <c r="Z40" s="268"/>
-      <c r="AA40" s="269"/>
-      <c r="AB40" s="265"/>
-      <c r="AC40" s="266"/>
-      <c r="AD40" s="266"/>
+      <c r="A40" s="289"/>
+      <c r="B40" s="289"/>
+      <c r="C40" s="290"/>
+      <c r="D40" s="291"/>
+      <c r="E40" s="292"/>
+      <c r="F40" s="292"/>
+      <c r="G40" s="288"/>
+      <c r="H40" s="287"/>
+      <c r="I40" s="288"/>
+      <c r="J40" s="287"/>
+      <c r="K40" s="288"/>
+      <c r="L40" s="284"/>
+      <c r="M40" s="285"/>
+      <c r="N40" s="285"/>
+      <c r="O40" s="285"/>
+      <c r="P40" s="285"/>
+      <c r="Q40" s="285"/>
+      <c r="R40" s="285"/>
+      <c r="S40" s="285"/>
+      <c r="T40" s="285"/>
+      <c r="U40" s="285"/>
+      <c r="V40" s="285"/>
+      <c r="W40" s="285"/>
+      <c r="X40" s="285"/>
+      <c r="Y40" s="285"/>
+      <c r="Z40" s="285"/>
+      <c r="AA40" s="286"/>
+      <c r="AB40" s="282"/>
+      <c r="AC40" s="283"/>
+      <c r="AD40" s="283"/>
     </row>
     <row r="41" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A41" s="275"/>
-      <c r="B41" s="275"/>
-      <c r="C41" s="276"/>
-      <c r="D41" s="252"/>
-      <c r="E41" s="253"/>
-      <c r="F41" s="253"/>
-      <c r="G41" s="254"/>
-      <c r="H41" s="257"/>
-      <c r="I41" s="254"/>
-      <c r="J41" s="257"/>
-      <c r="K41" s="254"/>
-      <c r="L41" s="267"/>
-      <c r="M41" s="268"/>
-      <c r="N41" s="268"/>
-      <c r="O41" s="268"/>
-      <c r="P41" s="268"/>
-      <c r="Q41" s="268"/>
-      <c r="R41" s="268"/>
-      <c r="S41" s="268"/>
-      <c r="T41" s="268"/>
-      <c r="U41" s="268"/>
-      <c r="V41" s="268"/>
-      <c r="W41" s="268"/>
-      <c r="X41" s="268"/>
-      <c r="Y41" s="268"/>
-      <c r="Z41" s="268"/>
-      <c r="AA41" s="269"/>
-      <c r="AB41" s="265"/>
-      <c r="AC41" s="266"/>
-      <c r="AD41" s="266"/>
+      <c r="A41" s="289"/>
+      <c r="B41" s="289"/>
+      <c r="C41" s="290"/>
+      <c r="D41" s="291"/>
+      <c r="E41" s="292"/>
+      <c r="F41" s="292"/>
+      <c r="G41" s="288"/>
+      <c r="H41" s="287"/>
+      <c r="I41" s="288"/>
+      <c r="J41" s="287"/>
+      <c r="K41" s="288"/>
+      <c r="L41" s="284"/>
+      <c r="M41" s="285"/>
+      <c r="N41" s="285"/>
+      <c r="O41" s="285"/>
+      <c r="P41" s="285"/>
+      <c r="Q41" s="285"/>
+      <c r="R41" s="285"/>
+      <c r="S41" s="285"/>
+      <c r="T41" s="285"/>
+      <c r="U41" s="285"/>
+      <c r="V41" s="285"/>
+      <c r="W41" s="285"/>
+      <c r="X41" s="285"/>
+      <c r="Y41" s="285"/>
+      <c r="Z41" s="285"/>
+      <c r="AA41" s="286"/>
+      <c r="AB41" s="282"/>
+      <c r="AC41" s="283"/>
+      <c r="AD41" s="283"/>
     </row>
     <row r="42" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A42" s="275"/>
-      <c r="B42" s="275"/>
-      <c r="C42" s="276"/>
-      <c r="D42" s="252"/>
-      <c r="E42" s="253"/>
-      <c r="F42" s="253"/>
-      <c r="G42" s="254"/>
-      <c r="H42" s="257"/>
-      <c r="I42" s="254"/>
-      <c r="J42" s="257"/>
-      <c r="K42" s="254"/>
-      <c r="L42" s="267"/>
-      <c r="M42" s="268"/>
-      <c r="N42" s="268"/>
-      <c r="O42" s="268"/>
-      <c r="P42" s="268"/>
-      <c r="Q42" s="268"/>
-      <c r="R42" s="268"/>
-      <c r="S42" s="268"/>
-      <c r="T42" s="268"/>
-      <c r="U42" s="268"/>
-      <c r="V42" s="268"/>
-      <c r="W42" s="268"/>
-      <c r="X42" s="268"/>
-      <c r="Y42" s="268"/>
-      <c r="Z42" s="268"/>
-      <c r="AA42" s="269"/>
-      <c r="AB42" s="265"/>
-      <c r="AC42" s="266"/>
-      <c r="AD42" s="266"/>
+      <c r="A42" s="289"/>
+      <c r="B42" s="289"/>
+      <c r="C42" s="290"/>
+      <c r="D42" s="291"/>
+      <c r="E42" s="292"/>
+      <c r="F42" s="292"/>
+      <c r="G42" s="288"/>
+      <c r="H42" s="287"/>
+      <c r="I42" s="288"/>
+      <c r="J42" s="287"/>
+      <c r="K42" s="288"/>
+      <c r="L42" s="284"/>
+      <c r="M42" s="285"/>
+      <c r="N42" s="285"/>
+      <c r="O42" s="285"/>
+      <c r="P42" s="285"/>
+      <c r="Q42" s="285"/>
+      <c r="R42" s="285"/>
+      <c r="S42" s="285"/>
+      <c r="T42" s="285"/>
+      <c r="U42" s="285"/>
+      <c r="V42" s="285"/>
+      <c r="W42" s="285"/>
+      <c r="X42" s="285"/>
+      <c r="Y42" s="285"/>
+      <c r="Z42" s="285"/>
+      <c r="AA42" s="286"/>
+      <c r="AB42" s="282"/>
+      <c r="AC42" s="283"/>
+      <c r="AD42" s="283"/>
     </row>
     <row r="43" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A43" s="275"/>
-      <c r="B43" s="275"/>
-      <c r="C43" s="276"/>
-      <c r="D43" s="252"/>
-      <c r="E43" s="253"/>
-      <c r="F43" s="253"/>
-      <c r="G43" s="254"/>
-      <c r="H43" s="257"/>
-      <c r="I43" s="254"/>
-      <c r="J43" s="257"/>
-      <c r="K43" s="254"/>
-      <c r="L43" s="267"/>
-      <c r="M43" s="268"/>
-      <c r="N43" s="268"/>
-      <c r="O43" s="268"/>
-      <c r="P43" s="268"/>
-      <c r="Q43" s="268"/>
-      <c r="R43" s="268"/>
-      <c r="S43" s="268"/>
-      <c r="T43" s="268"/>
-      <c r="U43" s="268"/>
-      <c r="V43" s="268"/>
-      <c r="W43" s="268"/>
-      <c r="X43" s="268"/>
-      <c r="Y43" s="268"/>
-      <c r="Z43" s="268"/>
-      <c r="AA43" s="269"/>
-      <c r="AB43" s="265"/>
-      <c r="AC43" s="266"/>
-      <c r="AD43" s="266"/>
+      <c r="A43" s="289"/>
+      <c r="B43" s="289"/>
+      <c r="C43" s="290"/>
+      <c r="D43" s="291"/>
+      <c r="E43" s="292"/>
+      <c r="F43" s="292"/>
+      <c r="G43" s="288"/>
+      <c r="H43" s="287"/>
+      <c r="I43" s="288"/>
+      <c r="J43" s="287"/>
+      <c r="K43" s="288"/>
+      <c r="L43" s="284"/>
+      <c r="M43" s="285"/>
+      <c r="N43" s="285"/>
+      <c r="O43" s="285"/>
+      <c r="P43" s="285"/>
+      <c r="Q43" s="285"/>
+      <c r="R43" s="285"/>
+      <c r="S43" s="285"/>
+      <c r="T43" s="285"/>
+      <c r="U43" s="285"/>
+      <c r="V43" s="285"/>
+      <c r="W43" s="285"/>
+      <c r="X43" s="285"/>
+      <c r="Y43" s="285"/>
+      <c r="Z43" s="285"/>
+      <c r="AA43" s="286"/>
+      <c r="AB43" s="282"/>
+      <c r="AC43" s="283"/>
+      <c r="AD43" s="283"/>
       <c r="AE43" s="115"/>
     </row>
     <row r="44" spans="1:31" ht="16.5" customHeight="1">
@@ -6838,6 +6841,165 @@
     </row>
   </sheetData>
   <mergeCells count="183">
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="L43:AA43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="A31:AD31"/>
+    <mergeCell ref="A32:AD32"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:AA42"/>
+    <mergeCell ref="AB42:AD42"/>
+    <mergeCell ref="AB40:AD40"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="D27:X27"/>
+    <mergeCell ref="E29:X29"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:AA40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A34:AD34"/>
+    <mergeCell ref="A37:AD37"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="A35:AD35"/>
+    <mergeCell ref="A36:AD36"/>
+    <mergeCell ref="AB39:AD39"/>
+    <mergeCell ref="L39:AA39"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:AA41"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="W5:AA5"/>
@@ -6862,165 +7024,6 @@
     <mergeCell ref="V13:X13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A34:AD34"/>
-    <mergeCell ref="A37:AD37"/>
-    <mergeCell ref="AB38:AD38"/>
-    <mergeCell ref="A35:AD35"/>
-    <mergeCell ref="A36:AD36"/>
-    <mergeCell ref="AB39:AD39"/>
-    <mergeCell ref="L39:AA39"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:AA41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:AA40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="AB43:AD43"/>
-    <mergeCell ref="L43:AA43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="A31:AD31"/>
-    <mergeCell ref="A32:AD32"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:AA42"/>
-    <mergeCell ref="AB42:AD42"/>
-    <mergeCell ref="AB40:AD40"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="D27:X27"/>
-    <mergeCell ref="E29:X29"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="S24:U24"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7035,8 +7038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7306,6 +7309,9 @@
       <c r="B20" s="218">
         <v>41269</v>
       </c>
+      <c r="C20">
+        <v>178</v>
+      </c>
       <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4">
@@ -7343,6 +7349,9 @@
       <c r="B23" s="218">
         <v>41270</v>
       </c>
+      <c r="C23">
+        <v>178</v>
+      </c>
       <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4">
@@ -7394,6 +7403,9 @@
       <c r="B27" s="218">
         <v>41271</v>
       </c>
+      <c r="C27">
+        <v>178</v>
+      </c>
       <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:4">
@@ -7431,6 +7443,9 @@
       <c r="B30" s="218">
         <v>41272</v>
       </c>
+      <c r="C30">
+        <v>178</v>
+      </c>
       <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4">
@@ -7468,6 +7483,9 @@
       <c r="B33" s="218">
         <v>41273</v>
       </c>
+      <c r="C33">
+        <v>178</v>
+      </c>
       <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4">
@@ -7491,6 +7509,9 @@
       <c r="B35" s="218">
         <v>41274</v>
       </c>
+      <c r="C35">
+        <v>178</v>
+      </c>
       <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:4">
@@ -7541,6 +7562,9 @@
       </c>
       <c r="B39" s="218">
         <v>40909</v>
+      </c>
+      <c r="C39">
+        <v>178</v>
       </c>
       <c r="D39" s="17"/>
     </row>
@@ -7568,7 +7592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="75" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -7605,8 +7629,8 @@
       <c r="K1" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="320"/>
-      <c r="M1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="322"/>
       <c r="N1" s="68"/>
       <c r="O1" s="80"/>
       <c r="P1" s="81"/>
@@ -7654,8 +7678,8 @@
       <c r="N3" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="315"/>
-      <c r="P3" s="316"/>
+      <c r="O3" s="316"/>
+      <c r="P3" s="317"/>
     </row>
     <row r="4" spans="1:16" ht="18.75">
       <c r="A4" s="130"/>
@@ -7668,12 +7692,12 @@
       <c r="H4" s="5"/>
       <c r="I4" s="29"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="322"/>
-      <c r="L4" s="323"/>
-      <c r="M4" s="324"/>
-      <c r="N4" s="317"/>
-      <c r="O4" s="318"/>
-      <c r="P4" s="319"/>
+      <c r="K4" s="323"/>
+      <c r="L4" s="324"/>
+      <c r="M4" s="325"/>
+      <c r="N4" s="318"/>
+      <c r="O4" s="319"/>
+      <c r="P4" s="320"/>
     </row>
     <row r="5" spans="1:16" ht="15">
       <c r="A5" s="34" t="s">
@@ -7753,27 +7777,27 @@
       <c r="O8" s="22"/>
     </row>
     <row r="9" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A9" s="245" t="s">
+      <c r="A9" s="232" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="247"/>
-      <c r="C9" s="247"/>
-      <c r="D9" s="247"/>
-      <c r="E9" s="245" t="s">
+      <c r="B9" s="234"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="247"/>
-      <c r="G9" s="246"/>
-      <c r="H9" s="245" t="s">
+      <c r="F9" s="234"/>
+      <c r="G9" s="233"/>
+      <c r="H9" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="247"/>
-      <c r="J9" s="247"/>
-      <c r="K9" s="234" t="s">
+      <c r="I9" s="234"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="244" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="235"/>
-      <c r="M9" s="325"/>
+      <c r="L9" s="245"/>
+      <c r="M9" s="326"/>
       <c r="N9" s="63" t="s">
         <v>65</v>
       </c>
@@ -7785,14 +7809,14 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A10" s="313" t="s">
+      <c r="A10" s="328" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="314"/>
-      <c r="C10" s="245" t="s">
+      <c r="B10" s="329"/>
+      <c r="C10" s="232" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="246"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="61" t="s">
         <v>68</v>
       </c>
@@ -7802,14 +7826,14 @@
       <c r="G10" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="245" t="s">
+      <c r="H10" s="232" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="247"/>
-      <c r="J10" s="247"/>
-      <c r="K10" s="236"/>
-      <c r="L10" s="237"/>
-      <c r="M10" s="326"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="247"/>
+      <c r="M10" s="327"/>
       <c r="N10" s="72" t="s">
         <v>89</v>
       </c>
@@ -8868,17 +8892,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K9:M10"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K9:M10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.36" right="0.18" top="0.51" bottom="0.31" header="0.5" footer="0.18"/>
